--- a/BalanceSheet/INFO_bal.xlsx
+++ b/BalanceSheet/INFO_bal.xlsx
@@ -1924,19 +1924,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-11800000.0</v>
+        <v>31000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>21700000.0</v>
+        <v>48000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-16500000.0</v>
+        <v>23000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-1000000.0</v>
+        <v>21000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-21500000.0</v>
+        <v>33000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>59700000.0</v>
@@ -3535,19 +3535,19 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>7300000.0</v>
+        <v>466000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>-123800000.0</v>
+        <v>516000000.0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>-100000.0</v>
+        <v>643000000.0</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>-25900000.0</v>
+        <v>634000000.0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>15100000.0</v>
+        <v>665000000.0</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>667200000.0</v>
